--- a/AppTec/practice/TeamA/tableValue.xlsx
+++ b/AppTec/practice/TeamA/tableValue.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\systemi\Desktop\会社業務内\応用技術演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\Kenshu\Systemi_Training_2020\AppTec\practice\TeamA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー(user)" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="90">
   <si>
     <t>項目名</t>
   </si>
@@ -113,13 +113,6 @@
     </r>
   </si>
   <si>
-    <t>変数名</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンスウメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -301,18 +294,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>created_at</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>update_at</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>created_at</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
       <t>シュルイ</t>
@@ -339,6 +320,71 @@
   </si>
   <si>
     <t>プライマリキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updated_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBカラム名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java変数名</t>
+    <rPh sb="4" eb="7">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>branchId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>departmentId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createdDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updatedDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java変数名</t>
+    <rPh sb="4" eb="7">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createdDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contributionId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_date</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -825,182 +871,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F11"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="79.9140625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="40.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="40.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="9" t="s">
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="40" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" ht="40" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="40" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" ht="40" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="D11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1013,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1024,92 +1102,108 @@
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.4140625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="40.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="40.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="9" t="s">
+    <row r="6" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="D6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1120,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1131,106 +1225,123 @@
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="40.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="40.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="9" t="s">
+    <row r="6" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="D6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1238,139 +1349,164 @@
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="40.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="40.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="40" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="2:7" ht="40" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="40" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="2:7" ht="40" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="F7" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="G7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1381,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1392,126 +1528,148 @@
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.58203125" customWidth="1"/>
+    <col min="4" max="4" width="21.4140625" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="40.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="40.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="6" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/AppTec/practice/TeamA/tableValue.xlsx
+++ b/AppTec/practice/TeamA/tableValue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\Kenshu\Systemi_Training_2020\AppTec\practice\TeamA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\systemi\Desktop\会社業務内\応用技術演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,20 +28,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="82">
   <si>
     <t>項目名</t>
   </si>
   <si>
-    <t>説明</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>ユーザー情報を一意にするため、数値を自動で登録します。画面には表示しない情報のため、使用者には見えません。</t>
-  </si>
-  <si>
     <t>アカウント</t>
   </si>
   <si>
@@ -54,37 +48,19 @@
     <t>名称</t>
   </si>
   <si>
-    <t>ユーザーの名称です。個人名を格納します。名称は10文字以下とします。</t>
-  </si>
-  <si>
     <t>支社</t>
   </si>
   <si>
-    <t>ユーザーが所属する支社（本社含む）を示す数値を格納します。</t>
-  </si>
-  <si>
     <t>部署</t>
   </si>
   <si>
-    <t>ユーザーが所属する部署を示す数値を格納します。</t>
-  </si>
-  <si>
     <t>ユーザー停止状態</t>
   </si>
   <si>
-    <t>そのユーザーの停止状態を示す数値を格納します。</t>
-  </si>
-  <si>
     <t>登録日時</t>
   </si>
   <si>
-    <t>ユーザーが登録された日時を自動で登録します。</t>
-  </si>
-  <si>
     <t>更新日時</t>
-  </si>
-  <si>
-    <t>ユーザーが更新された日時を自動で登録します。</t>
   </si>
   <si>
     <r>
@@ -129,71 +105,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>支社情報を一意にするため、数値を自動で登録します。画面には表示しない情報のため、使用者には見えません。</t>
-  </si>
-  <si>
-    <t>支社の名称です。</t>
-  </si>
-  <si>
-    <t>支社が登録された日時を自動で登録します。</t>
-  </si>
-  <si>
-    <t>支社が更新された日時を自動で登録します。</t>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>部署情報を一意にするため、数値を自動で登録します。画面には表示しない情報のため、使用者には見えません。</t>
-  </si>
-  <si>
-    <t>部署の名称です。</t>
-  </si>
-  <si>
-    <t>部署が登録された日時を自動で登録します。</t>
-  </si>
-  <si>
-    <t>部署が更新された日時を自動で登録します。</t>
-  </si>
-  <si>
-    <t>投稿情報を一意にするため、数値を自動で登録します。画面には表示しない情報のため、使用者には見えません。</t>
-  </si>
-  <si>
     <t>件名</t>
   </si>
   <si>
-    <t>投稿の件名です。件名は30文字以下とします。空のまま登録することはできません。</t>
-  </si>
-  <si>
     <t>本文</t>
   </si>
   <si>
-    <t>投稿の本文です。本文は1000文字以下とします。空のまま登録することはできません。</t>
-  </si>
-  <si>
     <t>カテゴリー</t>
   </si>
   <si>
-    <t>投稿内容のカテゴリーです。カテゴリー名は10文字以下とします。空のまま登録することはできません。</t>
-  </si>
-  <si>
     <t>登録者</t>
   </si>
   <si>
-    <t>投稿を登録したユーザーのIDを自動で登録します。</t>
-  </si>
-  <si>
-    <t>投稿が登録された日時を自動で登録します。</t>
-  </si>
-  <si>
-    <t>投稿が更新された日時を自動で登録します。</t>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -214,27 +141,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コメント情報を一意にするため、数値を自動で登録します。画面には表示しない情報のため、使用者には見えません。</t>
-  </si>
-  <si>
-    <t>コメントの本文です。本文は500文字以下とします。空のまま登録することはできません。</t>
-  </si>
-  <si>
-    <t>コメントを登録したユーザーのIDを自動で登録します。</t>
-  </si>
-  <si>
     <t>投稿</t>
   </si>
   <si>
-    <t>コメントを登録した投稿のIDを自動で登録します。</t>
-  </si>
-  <si>
-    <t>コメントが登録された日時を自動で登録します。</t>
-  </si>
-  <si>
-    <t>コメントが更新された日時を自動で登録します。</t>
-  </si>
-  <si>
     <t>branch_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -268,13 +177,6 @@
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ型</t>
-    <rPh sb="3" eb="4">
-      <t>カタ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -385,6 +287,110 @@
   </si>
   <si>
     <t>created_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBデータ型</t>
+    <rPh sb="5" eb="6">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javaデータ型</t>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字数</t>
+    <rPh sb="0" eb="3">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制約</t>
+    <rPh sb="0" eb="2">
+      <t>セイヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UNIQUE  NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT  PRAIMARY KEY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REFERENCES</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -392,7 +398,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +437,23 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -542,7 +565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,6 +613,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,216 +915,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="79.9140625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.9140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="14" t="s">
-        <v>66</v>
+    <row r="2" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="53.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:12" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="40.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="I4" s="2">
         <v>20</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="K4" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="11" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="1">
+        <v>20</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:12" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="11" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="9" t="s">
         <v>64</v>
       </c>
+      <c r="F9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="5" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="9" t="s">
-        <v>65</v>
+        <v>79</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1091,120 +1192,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G6"/>
+  <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="76.4140625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="14" t="s">
-        <v>66</v>
+    <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>79</v>
+        <v>40</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="53.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="40.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="9" t="s">
-        <v>65</v>
+        <v>79</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1214,120 +1335,140 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G6"/>
+  <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="76" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="12" t="s">
-        <v>66</v>
+    <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="53.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="40.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="9" t="s">
-        <v>65</v>
+        <v>79</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1338,176 +1479,214 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="75.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="12" t="s">
-        <v>66</v>
+    <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="53.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="40.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="9" t="s">
-        <v>65</v>
+        <v>79</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1517,163 +1696,215 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.4140625" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.58203125" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.4140625" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="12" t="s">
-        <v>66</v>
+    <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="53.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="40.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="9" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="G8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="10" spans="2:9" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="2:9" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="2:9" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="2:9" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="2:9" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="2:9" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="2:9" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AppTec/practice/TeamA/tableValue.xlsx
+++ b/AppTec/practice/TeamA/tableValue.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\systemi\Desktop\会社業務内\応用技術演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\Kenshu\Systemi_Training_2020\AppTec\practice\TeamA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970"/>
   </bookViews>
   <sheets>
-    <sheet name="ユーザー(user)" sheetId="1" r:id="rId1"/>
-    <sheet name="支社(branch)" sheetId="2" r:id="rId2"/>
-    <sheet name="部署(department)" sheetId="3" r:id="rId3"/>
-    <sheet name="投稿(contribution)" sheetId="4" r:id="rId4"/>
-    <sheet name="コメント(comment)" sheetId="5" r:id="rId5"/>
+    <sheet name="ユーザー(users)" sheetId="1" r:id="rId1"/>
+    <sheet name="支社(branches)" sheetId="2" r:id="rId2"/>
+    <sheet name="部署(departments)" sheetId="3" r:id="rId3"/>
+    <sheet name="投稿(contributions)" sheetId="4" r:id="rId4"/>
+    <sheet name="コメント(comments)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="78">
   <si>
     <t>項目名</t>
   </si>
@@ -42,9 +42,6 @@
     <t>パスワード</t>
   </si>
   <si>
-    <t>システムへのログインに使用するパスワードです。記号を含む全ての半角文字で6文字以上20文字以下とします。</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
@@ -61,32 +58,6 @@
   </si>
   <si>
     <t>更新日時</t>
-  </si>
-  <si>
-    <r>
-      <t>システムへのログインに使用するものです。半角英数字[a</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>zA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Z0*9]で6文字以上20文字以下とします。</t>
-    </r>
   </si>
   <si>
     <t>id</t>
@@ -370,14 +341,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UNIQUE  NOT NULL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -390,7 +353,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>REFERENCES</t>
+    <t>FOREIGN KEY  REFERENCES</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -398,7 +361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,14 +379,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -565,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,46 +533,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,13 +581,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -917,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -940,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="53.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -966,22 +924,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -990,32 +948,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2">
         <v>20</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>11</v>
-      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="2:12" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="11" t="s">
@@ -1023,162 +977,158 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I5" s="1">
         <v>20</v>
       </c>
-      <c r="K5" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>4</v>
-      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="2:12" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:12" ht="53" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:12" ht="53" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:12" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>81</v>
+        <v>26</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:12" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:12" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:12" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="1"/>
@@ -1216,25 +1166,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="53.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -1242,87 +1192,87 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="2"/>
@@ -1337,7 +1287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -1359,25 +1309,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="53.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -1385,87 +1335,87 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="2"/>
@@ -1503,25 +1453,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="53.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -1529,44 +1479,44 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I4" s="2">
         <v>30</v>
@@ -1574,23 +1524,23 @@
     </row>
     <row r="5" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I5" s="1">
         <v>1000</v>
@@ -1598,92 +1548,92 @@
     </row>
     <row r="6" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:9" ht="53" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>81</v>
+        <v>23</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="1"/>
@@ -1720,25 +1670,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="53.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -1746,137 +1696,137 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:9" ht="53" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" ht="53" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="G6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>81</v>
+        <v>27</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="2"/>

--- a/AppTec/practice/TeamA/tableValue.xlsx
+++ b/AppTec/practice/TeamA/tableValue.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="75">
   <si>
     <t>項目名</t>
   </si>
@@ -279,15 +279,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -329,18 +321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UNIQUE  NOT NULL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -354,6 +334,14 @@
   </si>
   <si>
     <t>FOREIGN KEY  REFERENCES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -876,7 +864,7 @@
   <dimension ref="B2:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -913,10 +901,10 @@
         <v>45</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="53.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -930,7 +918,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>10</v>
@@ -939,7 +927,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -963,7 +951,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2">
         <v>20</v>
@@ -989,7 +977,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I5" s="1">
         <v>20</v>
@@ -1015,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2">
         <v>10</v>
@@ -1032,7 +1020,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>47</v>
@@ -1041,7 +1029,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -1056,7 +1044,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>48</v>
@@ -1065,7 +1053,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -1075,10 +1063,10 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>14</v>
@@ -1100,7 +1088,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>49</v>
@@ -1122,7 +1110,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>50</v>
@@ -1145,7 +1133,7 @@
   <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1181,10 +1169,10 @@
         <v>45</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="53.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -1198,7 +1186,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>10</v>
@@ -1207,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -1217,21 +1205,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="11" t="s">
@@ -1244,7 +1234,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>49</v>
@@ -1266,7 +1256,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>50</v>
@@ -1288,7 +1278,7 @@
   <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1324,10 +1314,10 @@
         <v>45</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="53.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -1341,7 +1331,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>10</v>
@@ -1350,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -1360,21 +1350,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="11" t="s">
@@ -1387,7 +1379,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>49</v>
@@ -1409,7 +1401,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>50</v>
@@ -1468,10 +1460,10 @@
         <v>45</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="53.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -1485,7 +1477,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>10</v>
@@ -1494,7 +1486,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -1507,7 +1499,7 @@
         <v>34</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>20</v>
@@ -1516,7 +1508,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2">
         <v>30</v>
@@ -1531,7 +1523,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>21</v>
@@ -1540,7 +1532,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I5" s="1">
         <v>1000</v>
@@ -1555,7 +1547,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>22</v>
@@ -1564,7 +1556,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2">
         <v>10</v>
@@ -1581,7 +1573,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>53</v>
@@ -1590,7 +1582,7 @@
         <v>23</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -1605,7 +1597,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>54</v>
@@ -1627,7 +1619,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>50</v>
@@ -1685,10 +1677,10 @@
         <v>45</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="53.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -1702,7 +1694,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>10</v>
@@ -1711,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -1733,7 +1725,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I4" s="2">
         <v>500</v>
@@ -1750,7 +1742,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>53</v>
@@ -1759,7 +1751,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -1774,7 +1766,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>55</v>
@@ -1783,7 +1775,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -1798,7 +1790,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>54</v>
@@ -1820,7 +1812,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>50</v>
